--- a/jpcore-r4/feature/swg2-physicalexam/CodeSystem-jp-medicallicensecertificate-cs.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/CodeSystem-jp-medicallicensecertificate-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T22:57:55+00:00</t>
+    <t>2022-09-09T22:32:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,13 +114,16 @@
     <t>Content</t>
   </si>
   <si>
-    <t>fragment</t>
+    <t>complete</t>
   </si>
   <si>
     <t>Supplements</t>
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Level</t>
@@ -457,7 +460,9 @@
       <c r="A22" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s" s="2">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -474,44 +479,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
